--- a/AkioAI/System_Tend/log.xlsx
+++ b/AkioAI/System_Tend/log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="511">
   <si>
     <t>枠</t>
   </si>
@@ -50,6 +50,1506 @@
   </si>
   <si>
     <t>勝率</t>
+  </si>
+  <si>
+    <t>高倉稜</t>
+  </si>
+  <si>
+    <t>安藤勝己</t>
+  </si>
+  <si>
+    <t>和田竜二</t>
+  </si>
+  <si>
+    <t>国分優作</t>
+  </si>
+  <si>
+    <t>幸英明</t>
+  </si>
+  <si>
+    <t>野元昭嘉</t>
+  </si>
+  <si>
+    <t>浜中俊</t>
+  </si>
+  <si>
+    <t>鮫島良太</t>
+  </si>
+  <si>
+    <t>川田将雅</t>
+  </si>
+  <si>
+    <t>藤懸貴志</t>
+  </si>
+  <si>
+    <t>太宰啓介</t>
+  </si>
+  <si>
+    <t>松山弘平</t>
+  </si>
+  <si>
+    <t>国分恭介</t>
+  </si>
+  <si>
+    <t>佐藤哲三</t>
+  </si>
+  <si>
+    <t>石橋守</t>
+  </si>
+  <si>
+    <t>小牧太</t>
+  </si>
+  <si>
+    <t>岩田康誠</t>
+  </si>
+  <si>
+    <t>武豊</t>
+  </si>
+  <si>
+    <t>酒井学</t>
+  </si>
+  <si>
+    <t>北村友一</t>
+  </si>
+  <si>
+    <t>ルメール</t>
+  </si>
+  <si>
+    <t>柴山雄一</t>
+  </si>
+  <si>
+    <t>津村明秀</t>
+  </si>
+  <si>
+    <t>藤岡佑介</t>
+  </si>
+  <si>
+    <t>川須栄彦</t>
+  </si>
+  <si>
+    <t>秋山真一</t>
+  </si>
+  <si>
+    <t>松田大作</t>
+  </si>
+  <si>
+    <t>横山典弘</t>
+  </si>
+  <si>
+    <t>川島信二</t>
+  </si>
+  <si>
+    <t>武幸四郎</t>
+  </si>
+  <si>
+    <t>藤岡康太</t>
+  </si>
+  <si>
+    <t>大下智</t>
+  </si>
+  <si>
+    <t>池添謙一</t>
+  </si>
+  <si>
+    <t>熊沢重文</t>
+  </si>
+  <si>
+    <t>福永祐一</t>
+  </si>
+  <si>
+    <t>中井裕二</t>
+  </si>
+  <si>
+    <t>ギュイヨ</t>
+  </si>
+  <si>
+    <t>四位洋文</t>
+  </si>
+  <si>
+    <t>勝浦正樹</t>
+  </si>
+  <si>
+    <t>吉田隼人</t>
+  </si>
+  <si>
+    <t>横山和生</t>
+  </si>
+  <si>
+    <t>中舘英二</t>
+  </si>
+  <si>
+    <t>松若風馬</t>
+  </si>
+  <si>
+    <t>小坂忠士</t>
+  </si>
+  <si>
+    <t>蛯名正義</t>
+  </si>
+  <si>
+    <t>ムーア</t>
+  </si>
+  <si>
+    <t>北村宏司</t>
+  </si>
+  <si>
+    <t>大野拓弥</t>
+  </si>
+  <si>
+    <t>戸崎圭太</t>
+  </si>
+  <si>
+    <t>田辺裕信</t>
+  </si>
+  <si>
+    <t>ビュイッ</t>
+  </si>
+  <si>
+    <t>デザーモ</t>
+  </si>
+  <si>
+    <t>杉原誠人</t>
+  </si>
+  <si>
+    <t>岩崎翼</t>
+  </si>
+  <si>
+    <t>古川吉洋</t>
+  </si>
+  <si>
+    <t>小崎綾也</t>
+  </si>
+  <si>
+    <t>嘉藤貴行</t>
+  </si>
+  <si>
+    <t>伊藤工真</t>
+  </si>
+  <si>
+    <t>バルジュ</t>
+  </si>
+  <si>
+    <t>丹内祐次</t>
+  </si>
+  <si>
+    <t>Ｍ．デム</t>
+  </si>
+  <si>
+    <t>黒岩悠</t>
+  </si>
+  <si>
+    <t>武士沢友</t>
+  </si>
+  <si>
+    <t>吉田豊</t>
+  </si>
+  <si>
+    <t>パートン</t>
+  </si>
+  <si>
+    <t>アッゼニ</t>
+  </si>
+  <si>
+    <t>ボウマン</t>
+  </si>
+  <si>
+    <t>丸山元気</t>
+  </si>
+  <si>
+    <t>水口優也</t>
+  </si>
+  <si>
+    <t>高田潤</t>
+  </si>
+  <si>
+    <t>黛弘人</t>
+  </si>
+  <si>
+    <t>石橋脩</t>
+  </si>
+  <si>
+    <t>菱田裕二</t>
+  </si>
+  <si>
+    <t>鮫島克駿</t>
+  </si>
+  <si>
+    <t>加藤祥太</t>
+  </si>
+  <si>
+    <t>内田博幸</t>
+  </si>
+  <si>
+    <t>中谷雄太</t>
+  </si>
+  <si>
+    <t>デュプレ</t>
+  </si>
+  <si>
+    <t>岡田祥嗣</t>
+  </si>
+  <si>
+    <t>宮崎北斗</t>
+  </si>
+  <si>
+    <t>木幡初也</t>
+  </si>
+  <si>
+    <t>菊沢一樹</t>
+  </si>
+  <si>
+    <t>原田和真</t>
+  </si>
+  <si>
+    <t>丸田恭介</t>
+  </si>
+  <si>
+    <t>荻野極</t>
+  </si>
+  <si>
+    <t>柴田未崎</t>
+  </si>
+  <si>
+    <t>佐藤友則</t>
+  </si>
+  <si>
+    <t>Ｃ．デム</t>
+  </si>
+  <si>
+    <t>木幡巧也</t>
+  </si>
+  <si>
+    <t>森裕太朗</t>
+  </si>
+  <si>
+    <t>村田一誠</t>
+  </si>
+  <si>
+    <t>川又賢治</t>
+  </si>
+  <si>
+    <t>森一馬</t>
+  </si>
+  <si>
+    <t>モレイラ</t>
+  </si>
+  <si>
+    <t>三浦皇成</t>
+  </si>
+  <si>
+    <t>グティエ</t>
+  </si>
+  <si>
+    <t>ミナリク</t>
+  </si>
+  <si>
+    <t>藤井勘一</t>
+  </si>
+  <si>
+    <t>西村淳也</t>
+  </si>
+  <si>
+    <t>畑端省吾</t>
+  </si>
+  <si>
+    <t>横山武史</t>
+  </si>
+  <si>
+    <t>富田暁</t>
+  </si>
+  <si>
+    <t>デットー</t>
+  </si>
+  <si>
+    <t>マーフィ</t>
+  </si>
+  <si>
+    <t>スミヨン</t>
+  </si>
+  <si>
+    <t>スペシャルウィーク</t>
+  </si>
+  <si>
+    <t>A.P. Indy</t>
+  </si>
+  <si>
+    <t>クロフネ</t>
+  </si>
+  <si>
+    <t>サンデーサイレンス</t>
+  </si>
+  <si>
+    <t>ブライアンズタイム</t>
+  </si>
+  <si>
+    <t>Gulch</t>
+  </si>
+  <si>
+    <t>キングカメハメハ</t>
+  </si>
+  <si>
+    <t>ノーザンテースト</t>
+  </si>
+  <si>
+    <t>ジェネラス</t>
+  </si>
+  <si>
+    <t>アサティス</t>
+  </si>
+  <si>
+    <t>カリスタグローリ</t>
+  </si>
+  <si>
+    <t>アフリート</t>
+  </si>
+  <si>
+    <t>プリサイスエンド</t>
+  </si>
+  <si>
+    <t>Pleasant Tap</t>
+  </si>
+  <si>
+    <t>アグネスフライト</t>
+  </si>
+  <si>
+    <t>ホワイトマズル</t>
+  </si>
+  <si>
+    <t>デュランダル</t>
+  </si>
+  <si>
+    <t>ティンバーカントリー</t>
+  </si>
+  <si>
+    <t>アグネスデジタル</t>
+  </si>
+  <si>
+    <t>Sadler's Wells</t>
+  </si>
+  <si>
+    <t>ゴールドアリュール</t>
+  </si>
+  <si>
+    <t>エイシンワシントン</t>
+  </si>
+  <si>
+    <t>マーベラスサンデー</t>
+  </si>
+  <si>
+    <t>マルゼンスキー</t>
+  </si>
+  <si>
+    <t>フジキセキ</t>
+  </si>
+  <si>
+    <t>Phone Trick</t>
+  </si>
+  <si>
+    <t>マンハッタンカフェ</t>
+  </si>
+  <si>
+    <t>Private Account</t>
+  </si>
+  <si>
+    <t>Awesome Again</t>
+  </si>
+  <si>
+    <t>ダンシングブレーヴ</t>
+  </si>
+  <si>
+    <t>カリズマティック</t>
+  </si>
+  <si>
+    <t>Seeking the Gold</t>
+  </si>
+  <si>
+    <t>Fusaichi Pegasus</t>
+  </si>
+  <si>
+    <t>Personal Flag</t>
+  </si>
+  <si>
+    <t>ジャッジアンジェルーチ</t>
+  </si>
+  <si>
+    <t>シンボリクリスエス</t>
+  </si>
+  <si>
+    <t>Devil's Bag</t>
+  </si>
+  <si>
+    <t>デインヒル</t>
+  </si>
+  <si>
+    <t>サウスヴィグラス</t>
+  </si>
+  <si>
+    <t>Cherokee Run</t>
+  </si>
+  <si>
+    <t>ゼンノロブロイ</t>
+  </si>
+  <si>
+    <t>トニービン</t>
+  </si>
+  <si>
+    <t>ソングオブウインド</t>
+  </si>
+  <si>
+    <t>デヒア</t>
+  </si>
+  <si>
+    <t>ストリートセンス</t>
+  </si>
+  <si>
+    <t>シングスピール</t>
+  </si>
+  <si>
+    <t>Medaglia d'Oro</t>
+  </si>
+  <si>
+    <t>Defensive Play</t>
+  </si>
+  <si>
+    <t>ネオユニヴァース</t>
+  </si>
+  <si>
+    <t>Touch Gold</t>
+  </si>
+  <si>
+    <t>アグネスタキオン</t>
+  </si>
+  <si>
+    <t>フサイチコンコルド</t>
+  </si>
+  <si>
+    <t>ジャングルポケット</t>
+  </si>
+  <si>
+    <t>Silver Deputy</t>
+  </si>
+  <si>
+    <t>カコイーシーズ</t>
+  </si>
+  <si>
+    <t>リアルシャダイ</t>
+  </si>
+  <si>
+    <t>Unbridled</t>
+  </si>
+  <si>
+    <t>Saint Ballado</t>
+  </si>
+  <si>
+    <t>ハーツクライ</t>
+  </si>
+  <si>
+    <t>O'Reilly</t>
+  </si>
+  <si>
+    <t>シルバーチャーム</t>
+  </si>
+  <si>
+    <t>Mud Route</t>
+  </si>
+  <si>
+    <t>スウェプトオーヴァーボード</t>
+  </si>
+  <si>
+    <t>Dancing Spree</t>
+  </si>
+  <si>
+    <t>ペルジノ</t>
+  </si>
+  <si>
+    <t>エンパイアメーカー</t>
+  </si>
+  <si>
+    <t>Native Prospector</t>
+  </si>
+  <si>
+    <t>Boundary</t>
+  </si>
+  <si>
+    <t>ブラックタイアフェアー</t>
+  </si>
+  <si>
+    <t>Nureyev</t>
+  </si>
+  <si>
+    <t>バブルガムフェロー</t>
+  </si>
+  <si>
+    <t>ロックオブジブラルタル</t>
+  </si>
+  <si>
+    <t>ダンスインザダーク</t>
+  </si>
+  <si>
+    <t>アジュディケーティング</t>
+  </si>
+  <si>
+    <t>スマコバクリーク</t>
+  </si>
+  <si>
+    <t>アラジ</t>
+  </si>
+  <si>
+    <t>Rahy</t>
+  </si>
+  <si>
+    <t>ゼンノエルシド</t>
+  </si>
+  <si>
+    <t>メジロライアン</t>
+  </si>
+  <si>
+    <t>Speightstown</t>
+  </si>
+  <si>
+    <t>アドマイヤベガ</t>
+  </si>
+  <si>
+    <t>ロージズインメイ</t>
+  </si>
+  <si>
+    <t>フォーティナイナー</t>
+  </si>
+  <si>
+    <t>シニスターミニスター</t>
+  </si>
+  <si>
+    <t>Bernardini</t>
+  </si>
+  <si>
+    <t>ヘニーヒューズ</t>
+  </si>
+  <si>
+    <t>Marquetry</t>
+  </si>
+  <si>
+    <t>エンドスウィープ</t>
+  </si>
+  <si>
+    <t>Capote</t>
+  </si>
+  <si>
+    <t>Mt. Livermore</t>
+  </si>
+  <si>
+    <t>Chimes Band</t>
+  </si>
+  <si>
+    <t>ブラックタキシード</t>
+  </si>
+  <si>
+    <t>キンググローリアス</t>
+  </si>
+  <si>
+    <t>ケイムホーム</t>
+  </si>
+  <si>
+    <t>ジェリ</t>
+  </si>
+  <si>
+    <t>スパイキュール</t>
+  </si>
+  <si>
+    <t>ジェイドロバリー</t>
+  </si>
+  <si>
+    <t>ヘクタープロテクター</t>
+  </si>
+  <si>
+    <t>エルハーブ</t>
+  </si>
+  <si>
+    <t>タイムパラドックス</t>
+  </si>
+  <si>
+    <t>アドマイヤムーン</t>
+  </si>
+  <si>
+    <t>Kingmambo</t>
+  </si>
+  <si>
+    <t>メジロベイリー</t>
+  </si>
+  <si>
+    <t>Golden Missile</t>
+  </si>
+  <si>
+    <t>Storm Cat</t>
+  </si>
+  <si>
+    <t>スズカマンボ</t>
+  </si>
+  <si>
+    <t>ミシル</t>
+  </si>
+  <si>
+    <t>スキャン</t>
+  </si>
+  <si>
+    <t>ラグビーボール</t>
+  </si>
+  <si>
+    <t>アドマイヤボス</t>
+  </si>
+  <si>
+    <t>Machiavellian</t>
+  </si>
+  <si>
+    <t>マジェスティックウォリアー</t>
+  </si>
+  <si>
+    <t>Mr. Greeley</t>
+  </si>
+  <si>
+    <t>エルコンドルパサー</t>
+  </si>
+  <si>
+    <t>Caller I. D.</t>
+  </si>
+  <si>
+    <t>オジジアン</t>
+  </si>
+  <si>
+    <t>トワイニング</t>
+  </si>
+  <si>
+    <t>ワイルドラッシュ</t>
+  </si>
+  <si>
+    <t>アーミジャー</t>
+  </si>
+  <si>
+    <t>ディープインパクト</t>
+  </si>
+  <si>
+    <t>ピルサドスキー</t>
+  </si>
+  <si>
+    <t>ウォーエンブレム</t>
+  </si>
+  <si>
+    <t>タマモクロス</t>
+  </si>
+  <si>
+    <t>オレハマッテルゼ</t>
+  </si>
+  <si>
+    <t>マイネルラヴ</t>
+  </si>
+  <si>
+    <t>コマンダーインチーフ</t>
+  </si>
+  <si>
+    <t>アドマイヤドン</t>
+  </si>
+  <si>
+    <t>ブレイヴェストローマン</t>
+  </si>
+  <si>
+    <t>Any Given Saturday</t>
+  </si>
+  <si>
+    <t>Flashy Bull</t>
+  </si>
+  <si>
+    <t>ストロベリーロード</t>
+  </si>
+  <si>
+    <t>マイネルセレクト</t>
+  </si>
+  <si>
+    <t>Sky Classic</t>
+  </si>
+  <si>
+    <t>ファルブラヴ</t>
+  </si>
+  <si>
+    <t>Seattle Slew</t>
+  </si>
+  <si>
+    <t>Lear Fan</t>
+  </si>
+  <si>
+    <t>Rainbow Corner</t>
+  </si>
+  <si>
+    <t>モガミ</t>
+  </si>
+  <si>
+    <t>タバスコキャット</t>
+  </si>
+  <si>
+    <t>Deputy Minister</t>
+  </si>
+  <si>
+    <t>ホリスキー</t>
+  </si>
+  <si>
+    <t>Halo</t>
+  </si>
+  <si>
+    <t>サクラバクシンオー</t>
+  </si>
+  <si>
+    <t>ウイニングチケット</t>
+  </si>
+  <si>
+    <t>フレンチデピュティ</t>
+  </si>
+  <si>
+    <t>Balleroy</t>
+  </si>
+  <si>
+    <t>Caerleon</t>
+  </si>
+  <si>
+    <t>エリシオ</t>
+  </si>
+  <si>
+    <t>ミシックトライブ</t>
+  </si>
+  <si>
+    <t>Dubawi</t>
+  </si>
+  <si>
+    <t>Ali-Royal</t>
+  </si>
+  <si>
+    <t>カネヒキリ</t>
+  </si>
+  <si>
+    <t>Dubai Destination</t>
+  </si>
+  <si>
+    <t>スクワートルスクワート</t>
+  </si>
+  <si>
+    <t>スティールハート</t>
+  </si>
+  <si>
+    <t>マルカシェンク</t>
+  </si>
+  <si>
+    <t>Wild Again</t>
+  </si>
+  <si>
+    <t>スニッツェル</t>
+  </si>
+  <si>
+    <t>ダンスホール</t>
+  </si>
+  <si>
+    <t>ゴールドヘイロー</t>
+  </si>
+  <si>
+    <t>ブラックタイド</t>
+  </si>
+  <si>
+    <t>Honour and Glory</t>
+  </si>
+  <si>
+    <t>チチカステナンゴ</t>
+  </si>
+  <si>
+    <t>スラヴィック</t>
+  </si>
+  <si>
+    <t>Candy Stripes</t>
+  </si>
+  <si>
+    <t>ウォーニング</t>
+  </si>
+  <si>
+    <t>ファスリエフ</t>
+  </si>
+  <si>
+    <t>エイシンサンディ</t>
+  </si>
+  <si>
+    <t>King's Best</t>
+  </si>
+  <si>
+    <t>Ghostzapper</t>
+  </si>
+  <si>
+    <t>Point Given</t>
+  </si>
+  <si>
+    <t>Distorted Humor</t>
+  </si>
+  <si>
+    <t>Roman Ruler</t>
+  </si>
+  <si>
+    <t>Giant's Causeway</t>
+  </si>
+  <si>
+    <t>ジェニュイン</t>
+  </si>
+  <si>
+    <t>タニノギムレット</t>
+  </si>
+  <si>
+    <t>ディープスカイ</t>
+  </si>
+  <si>
+    <t>Langfuhr</t>
+  </si>
+  <si>
+    <t>Gone West</t>
+  </si>
+  <si>
+    <t>Tapit</t>
+  </si>
+  <si>
+    <t>キングオブキングス</t>
+  </si>
+  <si>
+    <t>Bering</t>
+  </si>
+  <si>
+    <t>キングヘイロー</t>
+  </si>
+  <si>
+    <t>ヨハネスブルグ</t>
+  </si>
+  <si>
+    <t>Successful Appeal</t>
+  </si>
+  <si>
+    <t>Yankee Victor</t>
+  </si>
+  <si>
+    <t>ブロッコ</t>
+  </si>
+  <si>
+    <t>フォーティナイナーズサン</t>
+  </si>
+  <si>
+    <t>オース</t>
+  </si>
+  <si>
+    <t>サンライズペガサス</t>
+  </si>
+  <si>
+    <t>Arch</t>
+  </si>
+  <si>
+    <t>サニーブライアン</t>
+  </si>
+  <si>
+    <t>アドマイヤマックス</t>
+  </si>
+  <si>
+    <t>Grindstone</t>
+  </si>
+  <si>
+    <t>フサイチリシャール</t>
+  </si>
+  <si>
+    <t>オペラハウス</t>
+  </si>
+  <si>
+    <t>Polish Precedent</t>
+  </si>
+  <si>
+    <t>Mineshaft</t>
+  </si>
+  <si>
+    <t>スクリーンヒーロー</t>
+  </si>
+  <si>
+    <t>Aptitude</t>
+  </si>
+  <si>
+    <t>ヴァーミリアン</t>
+  </si>
+  <si>
+    <t>マヤノトップガン</t>
+  </si>
+  <si>
+    <t>バトルプラン</t>
+  </si>
+  <si>
+    <t>ヘネシー</t>
+  </si>
+  <si>
+    <t>Law Society</t>
+  </si>
+  <si>
+    <t>ステイゴールド</t>
+  </si>
+  <si>
+    <t>Grand Slam</t>
+  </si>
+  <si>
+    <t>メイショウボーラー</t>
+  </si>
+  <si>
+    <t>Green Desert</t>
+  </si>
+  <si>
+    <t>Cozzene</t>
+  </si>
+  <si>
+    <t>サクラローレル</t>
+  </si>
+  <si>
+    <t>With Approval</t>
+  </si>
+  <si>
+    <t>パイロ</t>
+  </si>
+  <si>
+    <t>Mayakovsky</t>
+  </si>
+  <si>
+    <t>スタチューオブリバティ</t>
+  </si>
+  <si>
+    <t>カンパニー</t>
+  </si>
+  <si>
+    <t>リンドシェーバー</t>
+  </si>
+  <si>
+    <t>カジノドライヴ</t>
+  </si>
+  <si>
+    <t>Exchange Rate</t>
+  </si>
+  <si>
+    <t>Lemon Drop Kid</t>
+  </si>
+  <si>
+    <t>ルーラーシップ</t>
+  </si>
+  <si>
+    <t>グラスワンダー</t>
+  </si>
+  <si>
+    <t>Quality Road</t>
+  </si>
+  <si>
+    <t>ソヴィエトスター</t>
+  </si>
+  <si>
+    <t>キンシャサノキセキ</t>
+  </si>
+  <si>
+    <t>Gold Alert</t>
+  </si>
+  <si>
+    <t>ダイワメジャー</t>
+  </si>
+  <si>
+    <t>エアジハード</t>
+  </si>
+  <si>
+    <t>Colonel John</t>
+  </si>
+  <si>
+    <t>Pulpit</t>
+  </si>
+  <si>
+    <t>トランセンド</t>
+  </si>
+  <si>
+    <t>ジョリーズヘイロー</t>
+  </si>
+  <si>
+    <t>タートルボウル</t>
+  </si>
+  <si>
+    <t>Gilded Time</t>
+  </si>
+  <si>
+    <t>Quiet American</t>
+  </si>
+  <si>
+    <t>テイエムオペラオー</t>
+  </si>
+  <si>
+    <t>メイショウサムソン</t>
+  </si>
+  <si>
+    <t>サンダーガルチ</t>
+  </si>
+  <si>
+    <t>Creative Cause</t>
+  </si>
+  <si>
+    <t>Maria's Mon</t>
+  </si>
+  <si>
+    <t>Northern Afleet</t>
+  </si>
+  <si>
+    <t>パントレセレブル</t>
+  </si>
+  <si>
+    <t>サザンヘイロー</t>
+  </si>
+  <si>
+    <t>アイルハヴアナザー</t>
+  </si>
+  <si>
+    <t>ストーミングホーム</t>
+  </si>
+  <si>
+    <t>High Chaparral</t>
+  </si>
+  <si>
+    <t>Bellamy Road</t>
+  </si>
+  <si>
+    <t>ボストンハーバー</t>
+  </si>
+  <si>
+    <t>アルデバランＩＩ</t>
+  </si>
+  <si>
+    <t>フリオーソ</t>
+  </si>
+  <si>
+    <t>アイネスフウジン</t>
+  </si>
+  <si>
+    <t>アルムタワケル</t>
+  </si>
+  <si>
+    <t>ワークフォース</t>
+  </si>
+  <si>
+    <t>アサクサキングス</t>
+  </si>
+  <si>
+    <t>アルカセット</t>
+  </si>
+  <si>
+    <t>ヴィクトワールピサ</t>
+  </si>
+  <si>
+    <t>Tale of the Cat</t>
+  </si>
+  <si>
+    <t>コロナドズクエスト</t>
+  </si>
+  <si>
+    <t>Crafty Prospector</t>
+  </si>
+  <si>
+    <t>灘S(1600万下)</t>
+  </si>
+  <si>
+    <t>麦秋S(1600万下)</t>
+  </si>
+  <si>
+    <t>東大路S(1600万下)</t>
+  </si>
+  <si>
+    <t>安達太良S(1600万下)</t>
+  </si>
+  <si>
+    <t>春光S(1600万下)</t>
+  </si>
+  <si>
+    <t>桜島S(1600万下)</t>
+  </si>
+  <si>
+    <t>鳴門S(1600万下)</t>
+  </si>
+  <si>
+    <t>ストークS(1600万下)</t>
+  </si>
+  <si>
+    <t>安芸S(1600万下)</t>
+  </si>
+  <si>
+    <t>東海S(G2)</t>
+  </si>
+  <si>
+    <t>白川郷S(1600万下)</t>
+  </si>
+  <si>
+    <t>アハルテケS(OP)</t>
+  </si>
+  <si>
+    <t>ブリリアントS(OP)</t>
+  </si>
+  <si>
+    <t>仁川S(OP)</t>
+  </si>
+  <si>
+    <t>カペラS(G3)</t>
+  </si>
+  <si>
+    <t>ジャパンカップダート(G1)</t>
+  </si>
+  <si>
+    <t>東京大賞典競走(G1)</t>
+  </si>
+  <si>
+    <t>フェアウェルS(OP)</t>
+  </si>
+  <si>
+    <t>ベテルギウスS(OP)</t>
+  </si>
+  <si>
+    <t>シリウスS(G3)</t>
+  </si>
+  <si>
+    <t>みやこS(G3)</t>
+  </si>
+  <si>
+    <t>初夢S(1600万下)</t>
+  </si>
+  <si>
+    <t>日本テレビ盃(G2)</t>
+  </si>
+  <si>
+    <t>名古屋グランプリ(G2)</t>
+  </si>
+  <si>
+    <t>赤富士S(1600万下)</t>
+  </si>
+  <si>
+    <t>ナリタブライアンC(1600万下)</t>
+  </si>
+  <si>
+    <t>TCK女王盃競走(G3)</t>
+  </si>
+  <si>
+    <t>丹沢S(1600万下)</t>
+  </si>
+  <si>
+    <t>夏至S(1600万下)</t>
+  </si>
+  <si>
+    <t>ジューンS(1600万下)</t>
+  </si>
+  <si>
+    <t>サンシャインS(1600万下)</t>
+  </si>
+  <si>
+    <t>オアシスS(OP)</t>
+  </si>
+  <si>
+    <t>天保山S(OP)</t>
+  </si>
+  <si>
+    <t>ダイオライト記念(G2)</t>
+  </si>
+  <si>
+    <t>ギャラクシーS(OP)</t>
+  </si>
+  <si>
+    <t>アンタレスS(G3)</t>
+  </si>
+  <si>
+    <t>都大路S(OP)</t>
+  </si>
+  <si>
+    <t>米子S(OP)</t>
+  </si>
+  <si>
+    <t>東京中日S杯武蔵野S(G3)</t>
+  </si>
+  <si>
+    <t>ポルックスS(OP)</t>
+  </si>
+  <si>
+    <t>万葉S(OP)</t>
+  </si>
+  <si>
+    <t>大和S(OP)</t>
+  </si>
+  <si>
+    <t>金蹄S(1600万下)</t>
+  </si>
+  <si>
+    <t>多摩川S(1600万下)</t>
+  </si>
+  <si>
+    <t>桃山S(1600万下)</t>
+  </si>
+  <si>
+    <t>平安S(G3)</t>
+  </si>
+  <si>
+    <t>アルデバランS(OP)</t>
+  </si>
+  <si>
+    <t>すばるS(OP)</t>
+  </si>
+  <si>
+    <t>エプソムC(G3)</t>
+  </si>
+  <si>
+    <t>京都オータムリーフP(OP)</t>
+  </si>
+  <si>
+    <t>欅S(OP)</t>
+  </si>
+  <si>
+    <t>JBCクラシック(G1)</t>
+  </si>
+  <si>
+    <t>エルムS(G3)</t>
+  </si>
+  <si>
+    <t>JBCレディスクラシ(G1)</t>
+  </si>
+  <si>
+    <t>BCクラシック(G1)</t>
+  </si>
+  <si>
+    <t>3歳以上1000万下</t>
+  </si>
+  <si>
+    <t>4歳以上1000万下</t>
+  </si>
+  <si>
+    <t>愛宕特別(1000万下)</t>
+  </si>
+  <si>
+    <t>鷹取特別(1000万下)</t>
+  </si>
+  <si>
+    <t>深秋特別(1000万下)</t>
+  </si>
+  <si>
+    <t>レジェンドJC(1000万下)</t>
+  </si>
+  <si>
+    <t>3歳以上500万下</t>
+  </si>
+  <si>
+    <t>tvk賞(1000万下)</t>
+  </si>
+  <si>
+    <t>横手特別(1000万下)</t>
+  </si>
+  <si>
+    <t>與杼特別(1000万下)</t>
+  </si>
+  <si>
+    <t>釧路湿原特別(1000万下)</t>
+  </si>
+  <si>
+    <t>羊蹄山特別(1000万下)</t>
+  </si>
+  <si>
+    <t>玄海特別(1000万下)</t>
+  </si>
+  <si>
+    <t>師走S(OP)</t>
+  </si>
+  <si>
+    <t>チャンピオンズC(G1)</t>
+  </si>
+  <si>
+    <t>マーチS(G3)</t>
+  </si>
+  <si>
+    <t>ヴィクトリアRC賞(1600万下)</t>
+  </si>
+  <si>
+    <t>八王子特別(1000万下)</t>
+  </si>
+  <si>
+    <t>甲南S(1600万下)</t>
+  </si>
+  <si>
+    <t>大沼S(OP)</t>
+  </si>
+  <si>
+    <t>栗東S(OP)</t>
+  </si>
+  <si>
+    <t>梅田S(1600万下)</t>
+  </si>
+  <si>
+    <t>総武S(OP)</t>
+  </si>
+  <si>
+    <t>メトロポリタンS(OP)</t>
+  </si>
+  <si>
+    <t>JBCクラシック競走(G1)</t>
+  </si>
+  <si>
+    <t>マイルチャンピオンシ(G1)</t>
+  </si>
+  <si>
+    <t>JBCスプリント競走(G1)</t>
+  </si>
+  <si>
+    <t>ジャクソンH</t>
+  </si>
+  <si>
+    <t>TVQ杯(1000万下)</t>
+  </si>
+  <si>
+    <t>吹田特別(1000万下)</t>
+  </si>
+  <si>
+    <t>伊勢佐木特別(1000万下)</t>
+  </si>
+  <si>
+    <t>花背特別(1000万下)</t>
+  </si>
+  <si>
+    <t>鳥取特別(1000万下)</t>
+  </si>
+  <si>
+    <t>石和特別(1000万下)</t>
+  </si>
+  <si>
+    <t>妙高特別(1000万下)</t>
+  </si>
+  <si>
+    <t>三峰山特別(1000万下)</t>
+  </si>
+  <si>
+    <t>ブラジルC(OP)</t>
+  </si>
+  <si>
+    <t>下鴨S(1600万下)</t>
+  </si>
+  <si>
+    <t>花のみちS(1600万下)</t>
+  </si>
+  <si>
+    <t>加古川特別(1000万下)</t>
+  </si>
+  <si>
+    <t>グリーンS(1600万下)</t>
+  </si>
+  <si>
+    <t>門司S(1600万下)</t>
+  </si>
+  <si>
+    <t>下総S(1600万下)</t>
+  </si>
+  <si>
+    <t>錦秋S(1600万下)</t>
+  </si>
+  <si>
+    <t>福島民友C(OP)</t>
+  </si>
+  <si>
+    <t>シャングリラ賞(1000万下)</t>
+  </si>
+  <si>
+    <t>日高特別(1000万下)</t>
+  </si>
+  <si>
+    <t>大倉山特別(1000万下)</t>
+  </si>
+  <si>
+    <t>福島放送賞(1000万下)</t>
+  </si>
+  <si>
+    <t>小金井特別(1000万下)</t>
+  </si>
+  <si>
+    <t>ジャパンC(G1)</t>
+  </si>
+  <si>
+    <t>摩耶S(1600万下)</t>
+  </si>
+  <si>
+    <t>上総S(1600万下)</t>
+  </si>
+  <si>
+    <t>招福S(1600万下)</t>
+  </si>
+  <si>
+    <t>伊丹S(1600万下)</t>
+  </si>
+  <si>
+    <t>早鞆特別(1000万下)</t>
+  </si>
+  <si>
+    <t>白嶺S(1600万下)</t>
+  </si>
+  <si>
+    <t>北山S(1600万下)</t>
+  </si>
+  <si>
+    <t>薫風S(1600万下)</t>
+  </si>
+  <si>
+    <t>コリアC(G1)</t>
+  </si>
+  <si>
+    <t>堺S(1600万下)</t>
+  </si>
+  <si>
+    <t>松戸特別(1000万下)</t>
+  </si>
+  <si>
+    <t>三浦特別(1000万下)</t>
+  </si>
+  <si>
+    <t>新潟大賞典(G3)</t>
+  </si>
+  <si>
+    <t>ラジオ日本賞(OP)</t>
+  </si>
+  <si>
+    <t>白山大賞典(G3)</t>
+  </si>
+  <si>
+    <t>浦和記念(G2)</t>
+  </si>
+  <si>
+    <t>観月橋S(1600万下)</t>
+  </si>
+  <si>
+    <t>青竜S(OP)</t>
+  </si>
+  <si>
+    <t>瀬戸特別(1000万下)</t>
+  </si>
+  <si>
+    <t>アレキサンドライトS(1600万下)</t>
+  </si>
+  <si>
+    <t>和布刈特別(1000万下)</t>
+  </si>
+  <si>
+    <t>平城京S(1600万下)</t>
+  </si>
+  <si>
+    <t>舞鶴S(1600万下)</t>
+  </si>
+  <si>
+    <t>花園S(1600万下)</t>
+  </si>
+  <si>
+    <t>納屋橋S(1600万下)</t>
+  </si>
+  <si>
+    <t>是政特別(1000万下)</t>
+  </si>
+  <si>
+    <t>灘S(3勝クラス)</t>
+  </si>
+  <si>
+    <t>東海テレビ杯東海S(G2)</t>
+  </si>
+  <si>
+    <t>スレイプニルS(OP)</t>
+  </si>
+  <si>
+    <t>ブラジルC(L)</t>
   </si>
 </sst>
 </file>
@@ -444,16 +1944,28 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>21.42857142857143</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
       <c r="F2">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>57.14285714285714</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,16 +1973,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>30.64516129032258</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>45.71428571428572</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>25.71428571428571</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -478,16 +1999,28 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>22.22222222222222</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>51.42857142857142</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <v>25.71428571428571</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -495,16 +2028,28 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>19.6969696969697</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>24.44444444444444</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>28.57142857142857</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>37.14285714285715</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -512,16 +2057,28 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>17.64705882352941</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="E6">
+        <v>31.0126582278481</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>22.85714285714286</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>22.85714285714286</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -529,16 +2086,28 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>17.39130434782609</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>16.92307692307692</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>25.71428571428571</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>31.42857142857143</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -546,16 +2115,28 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>16.41791044776119</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>6.818181818181817</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.857142857142857</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>5.714285714285714</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -563,16 +2144,28 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>14.70588235294118</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>6.666666666666667</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>22.85714285714286</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <v>25.71428571428571</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -585,11 +2178,20 @@
       <c r="D10">
         <v>0</v>
       </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
       <c r="F10">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>17.64705882352941</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>14.28571428571428</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -603,10 +2205,16 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>8.823529411764707</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>20.58823529411764</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -620,10 +2228,16 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.941176470588235</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>14.70588235294118</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -637,10 +2251,16 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>9.090909090909092</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>15.15151515151515</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -654,10 +2274,16 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>6.451612903225806</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>17.24137931034483</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -673,8 +2299,14 @@
       <c r="F15">
         <v>0</v>
       </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>6.896551724137931</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -690,11 +2322,17 @@
       <c r="F16">
         <v>0</v>
       </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -707,11 +2345,17 @@
       <c r="F17">
         <v>0</v>
       </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>14.28571428571428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -728,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -752,13 +2396,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D1"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -767,6 +2411,1476 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>18.18181818181818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>18.18181818181818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>36.36363636363637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>42.85714285714285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>16.66666666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>14.28571428571428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>4.347826086956522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>8.333333333333332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>28.57142857142857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>5.88235294117647</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>57.14285714285714</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>66.66666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>16.66666666666666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>15.78947368421053</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>16.66666666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>23.07692307692308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>8.333333333333332</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>66.66666666666666</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62">
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>16.66666666666666</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" t="s">
+        <v>102</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>66.66666666666666</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" t="s">
+        <v>111</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" t="s">
+        <v>112</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" t="s">
+        <v>113</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" t="s">
+        <v>114</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -776,13 +3890,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D1"/>
+  <dimension ref="A1:D260"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -791,6 +3905,3632 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>2.857142857142857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>4.285714285714286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>2.380952380952381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>7.142857142857142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>1.904761904761905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>2.380952380952381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>4.285714285714286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>1.904761904761905</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>1.428571428571429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>2.380952380952381</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>1.428571428571429</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>3.80952380952381</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>1.428571428571429</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B63" t="s">
+        <v>177</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B64" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B65" t="s">
+        <v>179</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" t="s">
+        <v>180</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B67" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B69" t="s">
+        <v>183</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B70" t="s">
+        <v>184</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B71" t="s">
+        <v>185</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>1.428571428571429</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B72" t="s">
+        <v>186</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B73" t="s">
+        <v>187</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B74" t="s">
+        <v>188</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B75" t="s">
+        <v>189</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B76" t="s">
+        <v>190</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B77" t="s">
+        <v>191</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B78" t="s">
+        <v>192</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B79" t="s">
+        <v>193</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B80" t="s">
+        <v>194</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B81" t="s">
+        <v>195</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>196</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B83" t="s">
+        <v>197</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>2.380952380952381</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B84" t="s">
+        <v>198</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>1.428571428571429</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B85" t="s">
+        <v>199</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B86" t="s">
+        <v>200</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>1.428571428571429</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B87" t="s">
+        <v>201</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B88" t="s">
+        <v>202</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B89" t="s">
+        <v>203</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B90" t="s">
+        <v>204</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B91" t="s">
+        <v>205</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B92" t="s">
+        <v>206</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B93" t="s">
+        <v>207</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B94" t="s">
+        <v>208</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B95" t="s">
+        <v>209</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B96" t="s">
+        <v>210</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B97" t="s">
+        <v>211</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B98" t="s">
+        <v>212</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B99" t="s">
+        <v>213</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B101" t="s">
+        <v>215</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B102" t="s">
+        <v>216</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B103" t="s">
+        <v>217</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B104" t="s">
+        <v>218</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B105" t="s">
+        <v>219</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B106" t="s">
+        <v>220</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B107" t="s">
+        <v>221</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B108" t="s">
+        <v>222</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B109" t="s">
+        <v>223</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B110" t="s">
+        <v>224</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B111" t="s">
+        <v>225</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B112" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B114" t="s">
+        <v>228</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B115" t="s">
+        <v>229</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" t="s">
+        <v>230</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B117" t="s">
+        <v>231</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B118" t="s">
+        <v>232</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B119" t="s">
+        <v>233</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B120" t="s">
+        <v>234</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B121" t="s">
+        <v>235</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B122" t="s">
+        <v>236</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B123" t="s">
+        <v>237</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B124" t="s">
+        <v>238</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B125" t="s">
+        <v>239</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B126" t="s">
+        <v>240</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B127" t="s">
+        <v>241</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B128" t="s">
+        <v>242</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B129" t="s">
+        <v>243</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B130" t="s">
+        <v>244</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B131" t="s">
+        <v>245</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B132" t="s">
+        <v>246</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B133" t="s">
+        <v>247</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B134" t="s">
+        <v>248</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B135" t="s">
+        <v>249</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B136" t="s">
+        <v>250</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B137" t="s">
+        <v>251</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B138" t="s">
+        <v>252</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B139" t="s">
+        <v>253</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B140" t="s">
+        <v>254</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B141" t="s">
+        <v>255</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B142" t="s">
+        <v>256</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B143" t="s">
+        <v>257</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B144" t="s">
+        <v>258</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B145" t="s">
+        <v>259</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B146" t="s">
+        <v>260</v>
+      </c>
+      <c r="C146">
+        <v>6</v>
+      </c>
+      <c r="D146">
+        <v>2.857142857142857</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B147" t="s">
+        <v>261</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B148" t="s">
+        <v>262</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B149" t="s">
+        <v>263</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B150" t="s">
+        <v>264</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B151" t="s">
+        <v>265</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B152" t="s">
+        <v>266</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B153" t="s">
+        <v>267</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B154" t="s">
+        <v>268</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B155" t="s">
+        <v>269</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B156" t="s">
+        <v>270</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B157" t="s">
+        <v>271</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B158" t="s">
+        <v>272</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B159" t="s">
+        <v>273</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B160" t="s">
+        <v>274</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B161" t="s">
+        <v>275</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B162" t="s">
+        <v>276</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B163" t="s">
+        <v>277</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B164" t="s">
+        <v>278</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B165" t="s">
+        <v>279</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B166" t="s">
+        <v>280</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B167" t="s">
+        <v>281</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B168" t="s">
+        <v>282</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B169" t="s">
+        <v>283</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B170" t="s">
+        <v>284</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B171" t="s">
+        <v>285</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B172" t="s">
+        <v>286</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B173" t="s">
+        <v>287</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+      <c r="D173">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B174" t="s">
+        <v>288</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B175" t="s">
+        <v>289</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+      <c r="D175">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B176" t="s">
+        <v>290</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B177" t="s">
+        <v>291</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B178" t="s">
+        <v>292</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
+      </c>
+      <c r="D178">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B179" t="s">
+        <v>293</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B180" t="s">
+        <v>294</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B181" t="s">
+        <v>295</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B182" t="s">
+        <v>296</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B183" t="s">
+        <v>297</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B184" t="s">
+        <v>298</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B185" t="s">
+        <v>299</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B186" t="s">
+        <v>300</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B187" t="s">
+        <v>301</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B188" t="s">
+        <v>302</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B189" t="s">
+        <v>303</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B190" t="s">
+        <v>304</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B191" t="s">
+        <v>305</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B192" t="s">
+        <v>306</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B193" t="s">
+        <v>307</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B194" t="s">
+        <v>308</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B195" t="s">
+        <v>309</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B196" t="s">
+        <v>310</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B197" t="s">
+        <v>311</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B198" t="s">
+        <v>312</v>
+      </c>
+      <c r="C198">
+        <v>2</v>
+      </c>
+      <c r="D198">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B199" t="s">
+        <v>313</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B200" t="s">
+        <v>314</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B201" t="s">
+        <v>315</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B202" t="s">
+        <v>316</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B203" t="s">
+        <v>317</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B204" t="s">
+        <v>318</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B205" t="s">
+        <v>319</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B206" t="s">
+        <v>320</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B207" t="s">
+        <v>321</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B208" t="s">
+        <v>322</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B209" t="s">
+        <v>323</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B210" t="s">
+        <v>324</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B211" t="s">
+        <v>325</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B212" t="s">
+        <v>326</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B213" t="s">
+        <v>327</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B214" t="s">
+        <v>328</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B215" t="s">
+        <v>329</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B216" t="s">
+        <v>330</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B217" t="s">
+        <v>331</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B218" t="s">
+        <v>332</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B219" t="s">
+        <v>333</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B220" t="s">
+        <v>334</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B221" t="s">
+        <v>335</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B222" t="s">
+        <v>336</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B223" t="s">
+        <v>337</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B224" t="s">
+        <v>338</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B225" t="s">
+        <v>339</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B226" t="s">
+        <v>340</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B227" t="s">
+        <v>341</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B228" t="s">
+        <v>342</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B229" t="s">
+        <v>343</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B230" t="s">
+        <v>344</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B231" t="s">
+        <v>345</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B232" t="s">
+        <v>346</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B233" t="s">
+        <v>347</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B234" t="s">
+        <v>348</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B235" t="s">
+        <v>349</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B236" t="s">
+        <v>350</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B237" t="s">
+        <v>351</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B238" t="s">
+        <v>352</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B239" t="s">
+        <v>353</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B240" t="s">
+        <v>354</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B241" t="s">
+        <v>355</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B242" t="s">
+        <v>356</v>
+      </c>
+      <c r="C242">
+        <v>2</v>
+      </c>
+      <c r="D242">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B243" t="s">
+        <v>357</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B244" t="s">
+        <v>358</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B245" t="s">
+        <v>359</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B246" t="s">
+        <v>360</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B247" t="s">
+        <v>361</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B248" t="s">
+        <v>362</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B249" t="s">
+        <v>363</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B250" t="s">
+        <v>364</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B251" t="s">
+        <v>365</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B252" t="s">
+        <v>366</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B253" t="s">
+        <v>367</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B254" t="s">
+        <v>368</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B255" t="s">
+        <v>369</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B256" t="s">
+        <v>370</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B257" t="s">
+        <v>371</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B258" t="s">
+        <v>372</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B259" t="s">
+        <v>373</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B260" t="s">
+        <v>374</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -800,13 +7540,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D1"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -815,6 +7555,1910 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>8.571428571428571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B12" t="s">
+        <v>385</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1.904761904761905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B13" t="s">
+        <v>386</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B14" t="s">
+        <v>387</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>2.857142857142857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" t="s">
+        <v>388</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B16" t="s">
+        <v>389</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1.904761904761905</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B18" t="s">
+        <v>391</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>2.857142857142857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B19" t="s">
+        <v>392</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B20" t="s">
+        <v>393</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B21" t="s">
+        <v>394</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B22" t="s">
+        <v>395</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>5.714285714285714</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B23" t="s">
+        <v>396</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B24" t="s">
+        <v>397</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B25" t="s">
+        <v>398</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B26" t="s">
+        <v>399</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B27" t="s">
+        <v>400</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B28" t="s">
+        <v>401</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B29" t="s">
+        <v>402</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B30" t="s">
+        <v>403</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B31" t="s">
+        <v>404</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B32" t="s">
+        <v>405</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B33" t="s">
+        <v>406</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>1.904761904761905</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B34" t="s">
+        <v>407</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B35" t="s">
+        <v>408</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B36" t="s">
+        <v>409</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B37" t="s">
+        <v>410</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B38" t="s">
+        <v>411</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B39" t="s">
+        <v>412</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B40" t="s">
+        <v>413</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>1.904761904761905</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B41" t="s">
+        <v>414</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B42" t="s">
+        <v>415</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B43" t="s">
+        <v>416</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B44" t="s">
+        <v>417</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B45" t="s">
+        <v>418</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B46" t="s">
+        <v>419</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>1.904761904761905</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B47" t="s">
+        <v>420</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>4.761904761904762</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B48" t="s">
+        <v>421</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B49" t="s">
+        <v>422</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B50" t="s">
+        <v>423</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B51" t="s">
+        <v>424</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B52" t="s">
+        <v>425</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B53" t="s">
+        <v>426</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>3.80952380952381</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B54" t="s">
+        <v>427</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B55" t="s">
+        <v>428</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B56" t="s">
+        <v>429</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B57" t="s">
+        <v>430</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>2.857142857142857</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B58" t="s">
+        <v>431</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>1.904761904761905</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B59" t="s">
+        <v>432</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B60" t="s">
+        <v>433</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B61" t="s">
+        <v>434</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B62" t="s">
+        <v>435</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B63" t="s">
+        <v>436</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B64" t="s">
+        <v>437</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B65" t="s">
+        <v>438</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B66" t="s">
+        <v>439</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B67" t="s">
+        <v>440</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B68" t="s">
+        <v>441</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B69" t="s">
+        <v>442</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B70" t="s">
+        <v>443</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>3.80952380952381</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B71" t="s">
+        <v>444</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>3.80952380952381</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B72" t="s">
+        <v>445</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B73" t="s">
+        <v>446</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B74" t="s">
+        <v>447</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B75" t="s">
+        <v>448</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B76" t="s">
+        <v>449</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B77" t="s">
+        <v>450</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B78" t="s">
+        <v>451</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B79" t="s">
+        <v>452</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B80" t="s">
+        <v>453</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B81" t="s">
+        <v>454</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B82" t="s">
+        <v>455</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>2.857142857142857</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B83" t="s">
+        <v>456</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B84" t="s">
+        <v>457</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B85" t="s">
+        <v>458</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B86" t="s">
+        <v>459</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B87" t="s">
+        <v>460</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B88" t="s">
+        <v>461</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B89" t="s">
+        <v>462</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B90" t="s">
+        <v>463</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B91" t="s">
+        <v>464</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B92" t="s">
+        <v>465</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B93" t="s">
+        <v>466</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B94" t="s">
+        <v>467</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B95" t="s">
+        <v>468</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>1.904761904761905</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B96" t="s">
+        <v>469</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B97" t="s">
+        <v>470</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B98" t="s">
+        <v>471</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B99" t="s">
+        <v>472</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B100" t="s">
+        <v>473</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B101" t="s">
+        <v>474</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B102" t="s">
+        <v>475</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B103" t="s">
+        <v>476</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B104" t="s">
+        <v>477</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B105" t="s">
+        <v>478</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B106" t="s">
+        <v>479</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B107" t="s">
+        <v>480</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B108" t="s">
+        <v>481</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B109" t="s">
+        <v>482</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B110" t="s">
+        <v>483</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B111" t="s">
+        <v>484</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B112" t="s">
+        <v>485</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B113" t="s">
+        <v>486</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B114" t="s">
+        <v>487</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B115" t="s">
+        <v>488</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B116" t="s">
+        <v>489</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B117" t="s">
+        <v>490</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B118" t="s">
+        <v>491</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B119" t="s">
+        <v>492</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B120" t="s">
+        <v>493</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B121" t="s">
+        <v>494</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B122" t="s">
+        <v>495</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B123" t="s">
+        <v>496</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B124" t="s">
+        <v>497</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B125" t="s">
+        <v>498</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B126" t="s">
+        <v>499</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B127" t="s">
+        <v>500</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B128" t="s">
+        <v>501</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B129" t="s">
+        <v>502</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B130" t="s">
+        <v>503</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B131" t="s">
+        <v>504</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B132" t="s">
+        <v>505</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B133" t="s">
+        <v>506</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B134" t="s">
+        <v>507</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B135" t="s">
+        <v>508</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B136" t="s">
+        <v>509</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B137" t="s">
+        <v>510</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
